--- a/data-raw/NutrientData/nutrientDetails/USDA GFS IMPACT V19.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/USDA GFS IMPACT V19.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27217"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="28800" windowHeight="16420"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="356">
   <si>
     <t>Bananas</t>
   </si>
@@ -1135,6 +1136,13 @@
   </si>
   <si>
     <t>11445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee conversion ratio - http://www.thecoffeeguide.org/coffee-guide/world-coffee-trade/conversions-and-statistics/ has information on conversion from beans to instant.
+So it looks like I should use 1/2.6 = 0.384 as the conversion. </t>
+  </si>
+  <si>
+    <t>see notes worksheet</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1841,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -2213,6 +2221,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="158">
     <cellStyle name="20% - Accent1" xfId="130" builtinId="30" customBuiltin="1"/>
@@ -2675,8 +2684,8 @@
   <dimension ref="A1:BL66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4714,9 +4723,11 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="16">
-        <v>100</v>
-      </c>
-      <c r="I15" s="21"/>
+        <v>38.4</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>355</v>
+      </c>
       <c r="J15" s="50"/>
       <c r="L15" s="43">
         <v>3.1</v>
@@ -11383,4 +11394,22 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>